--- a/xlsx/加州州立大学长滩分校_intext.xlsx
+++ b/xlsx/加州州立大学长滩分校_intext.xlsx
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/F%C2%B7%E9%87%91%C2%B7%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7</t>
@@ -77,7 +77,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長灘 (加利福尼亞州)</t>
+    <t>长滩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -137,7 +137,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%99%E7%B8%A3</t>
   </si>
   <si>
-    <t>橙縣</t>
+    <t>橙县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%88%98</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%9D%89%E7%A3%AF%E6%99%82%E5%A0%B1</t>
   </si>
   <si>
-    <t>洛杉磯時報</t>
+    <t>洛杉矶时报</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD%E9%9B%BB%E6%B1%A0%E6%9D%BF</t>
   </si>
   <si>
-    <t>太陽能電池板</t>
+    <t>太阳能电池板</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
